--- a/wwwroot/uploads/Book1.xlsx
+++ b/wwwroot/uploads/Book1.xlsx
@@ -557,12 +557,12 @@
         <v>550000</v>
       </c>
       <c r="G2" s="0">
-        <f>f2*8</f>
-        <v>4400000</v>
+        <f>f2*5</f>
+        <v>2750000</v>
       </c>
       <c r="H2" s="0">
         <f>sumif(e:e,"Kinh Doanh",g:g)</f>
-        <v>15280000</v>
+        <v>9550000</v>
       </c>
     </row>
     <row r="3">
@@ -585,8 +585,8 @@
         <v>450000</v>
       </c>
       <c r="G3" s="0">
-        <f>f3*8</f>
-        <v>3600000</v>
+        <f>f3*5</f>
+        <v>2250000</v>
       </c>
     </row>
     <row r="4">
@@ -609,8 +609,8 @@
         <v>430000</v>
       </c>
       <c r="G4" s="0">
-        <f>f4*8</f>
-        <v>3440000</v>
+        <f>f4*5</f>
+        <v>2150000</v>
       </c>
     </row>
     <row r="5">
@@ -633,8 +633,8 @@
         <v>300000</v>
       </c>
       <c r="G5" s="0">
-        <f>f5*8</f>
-        <v>2400000</v>
+        <f>f5*5</f>
+        <v>1500000</v>
       </c>
     </row>
     <row r="6">
@@ -657,8 +657,8 @@
         <v>450000</v>
       </c>
       <c r="G6" s="0">
-        <f>f6*8</f>
-        <v>3600000</v>
+        <f>f6*5</f>
+        <v>2250000</v>
       </c>
     </row>
     <row r="7">
@@ -681,8 +681,8 @@
         <v>350000</v>
       </c>
       <c r="G7" s="0">
-        <f>f7*8</f>
-        <v>2800000</v>
+        <f>f7*5</f>
+        <v>1750000</v>
       </c>
     </row>
     <row r="8">
@@ -705,8 +705,8 @@
         <v>300000</v>
       </c>
       <c r="G8" s="0">
-        <f>f8*8</f>
-        <v>2400000</v>
+        <f>f8*5</f>
+        <v>1500000</v>
       </c>
     </row>
     <row r="9">
@@ -729,8 +729,8 @@
         <v>330000</v>
       </c>
       <c r="G9" s="0">
-        <f>f9*8</f>
-        <v>2640000</v>
+        <f>f9*5</f>
+        <v>1650000</v>
       </c>
     </row>
     <row r="10">
@@ -753,8 +753,8 @@
         <v>320000</v>
       </c>
       <c r="G10" s="0">
-        <f>f10*8</f>
-        <v>2560000</v>
+        <f>f10*5</f>
+        <v>1600000</v>
       </c>
     </row>
     <row r="11">
@@ -777,8 +777,8 @@
         <v>310000</v>
       </c>
       <c r="G11" s="0">
-        <f>f11*8</f>
-        <v>2480000</v>
+        <f>f11*5</f>
+        <v>1550000</v>
       </c>
     </row>
   </sheetData>
